--- a/exercise plan.xlsx
+++ b/exercise plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nucifora family\Desktop\a\exercise_image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A1AAF-CB00-4D60-A488-697730524668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEE6781-79D9-4C41-A980-DDADCBAA0AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{FC76F838-8DF5-4C2B-B52F-3E64228B6566}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC76F838-8DF5-4C2B-B52F-3E64228B6566}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="46">
   <si>
     <t>SECTION A</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Dumbbell lateral raise</t>
+  </si>
+  <si>
+    <t>Quadricepts foam roll (L)</t>
+  </si>
+  <si>
+    <t>Quadricepts foam roll (R)</t>
   </si>
 </sst>
 </file>
@@ -612,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40BDE72-54C5-4A13-BB04-84493FBD5F81}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1121,7 @@
     </row>
     <row r="13" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1132,7 +1138,7 @@
       </c>
       <c r="G13" s="3" t="str">
         <f>"Section A/"&amp;A13&amp;".JPG"</f>
-        <v>Section A/Quadricepts foam roll.JPG</v>
+        <v>Section A/Quadricepts foam roll (L).JPG</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
@@ -1151,7 +1157,7 @@
         <v>32</v>
       </c>
       <c r="N13" s="4" t="str">
-        <f>"Section B/"&amp;H13&amp;".JPG"</f>
+        <f t="shared" ref="N13:N21" si="0">"Section B/"&amp;H13&amp;".JPG"</f>
         <v>Section B/Wall Squat Gluteal Bias.JPG</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -1171,7 +1177,7 @@
         <v>36</v>
       </c>
       <c r="U13" s="3" t="str">
-        <f>"Section C/"&amp;O13&amp;".JPG"</f>
+        <f t="shared" ref="U13:U20" si="1">"Section C/"&amp;O13&amp;".JPG"</f>
         <v>Section C/Bridge with pelvic tilt.JPG</v>
       </c>
       <c r="V13" s="4" t="s">
@@ -1191,18 +1197,31 @@
         <v>38</v>
       </c>
       <c r="AB13" s="4" t="str">
-        <f>"Section D/"&amp;V13&amp;".JPG"</f>
+        <f t="shared" ref="AB13:AB19" si="2">"Section D/"&amp;V13&amp;".JPG"</f>
         <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f>"Section A/"&amp;A14&amp;".JPG"</f>
+        <v>Section A/Quadricepts foam roll (R).JPG</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1239,7 @@
         <v>33</v>
       </c>
       <c r="N14" s="4" t="str">
-        <f>"Section B/"&amp;H14&amp;".JPG"</f>
+        <f t="shared" si="0"/>
         <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -1240,7 +1259,7 @@
         <v>37</v>
       </c>
       <c r="U14" s="3" t="str">
-        <f>"Section C/"&amp;O14&amp;".JPG"</f>
+        <f t="shared" si="1"/>
         <v>Section C/Split Squat.JPG</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -1258,7 +1277,7 @@
         <v>40</v>
       </c>
       <c r="AB14" s="4" t="str">
-        <f>"Section D/"&amp;V14&amp;".JPG"</f>
+        <f t="shared" si="2"/>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
     </row>
@@ -1285,7 +1304,7 @@
         <v>34</v>
       </c>
       <c r="N15" s="4" t="str">
-        <f>"Section B/"&amp;H15&amp;".JPG"</f>
+        <f t="shared" si="0"/>
         <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -1305,7 +1324,7 @@
         <v>35</v>
       </c>
       <c r="U15" s="3" t="str">
-        <f>"Section C/"&amp;O15&amp;".JPG"</f>
+        <f t="shared" si="1"/>
         <v>Section C/Cat and Camel Pose.JPG</v>
       </c>
       <c r="V15" s="4" t="s">
@@ -1325,7 +1344,7 @@
         <v>39</v>
       </c>
       <c r="AB15" s="4" t="str">
-        <f>"Section D/"&amp;V15&amp;".JPG"</f>
+        <f t="shared" si="2"/>
         <v>Section D/Triceps Extensions.JPG</v>
       </c>
     </row>
@@ -1354,7 +1373,7 @@
         <v>32</v>
       </c>
       <c r="N16" s="4" t="str">
-        <f>"Section B/"&amp;H16&amp;".JPG"</f>
+        <f t="shared" si="0"/>
         <v>Section B/Wall Squat Gluteal Bias.JPG</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -1374,7 +1393,7 @@
         <v>36</v>
       </c>
       <c r="U16" s="3" t="str">
-        <f>"Section C/"&amp;O16&amp;".JPG"</f>
+        <f t="shared" si="1"/>
         <v>Section C/Bridge with pelvic tilt.JPG</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -1394,7 +1413,7 @@
         <v>38</v>
       </c>
       <c r="AB16" s="4" t="str">
-        <f>"Section D/"&amp;V16&amp;".JPG"</f>
+        <f t="shared" si="2"/>
         <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
     </row>
@@ -1423,7 +1442,7 @@
         <v>33</v>
       </c>
       <c r="N17" s="4" t="str">
-        <f>"Section B/"&amp;H17&amp;".JPG"</f>
+        <f t="shared" si="0"/>
         <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -1443,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="U17" s="3" t="str">
-        <f>"Section C/"&amp;O17&amp;".JPG"</f>
+        <f t="shared" si="1"/>
         <v>Section C/Split Squat.JPG</v>
       </c>
       <c r="V17" s="4" t="s">
@@ -1461,7 +1480,7 @@
         <v>40</v>
       </c>
       <c r="AB17" s="4" t="str">
-        <f>"Section D/"&amp;V17&amp;".JPG"</f>
+        <f t="shared" si="2"/>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
     </row>
@@ -1488,7 +1507,7 @@
         <v>34</v>
       </c>
       <c r="N18" s="4" t="str">
-        <f>"Section B/"&amp;H18&amp;".JPG"</f>
+        <f t="shared" si="0"/>
         <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -1508,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="U18" s="3" t="str">
-        <f>"Section C/"&amp;O18&amp;".JPG"</f>
+        <f t="shared" si="1"/>
         <v>Section C/Cat and Camel Pose.JPG</v>
       </c>
       <c r="V18" s="4" t="s">
@@ -1528,7 +1547,7 @@
         <v>38</v>
       </c>
       <c r="AB18" s="4" t="str">
-        <f>"Section D/"&amp;V18&amp;".JPG"</f>
+        <f t="shared" si="2"/>
         <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
     </row>
@@ -1557,7 +1576,7 @@
         <v>32</v>
       </c>
       <c r="N19" s="4" t="str">
-        <f>"Section B/"&amp;H19&amp;".JPG"</f>
+        <f t="shared" si="0"/>
         <v>Section B/Wall Squat Gluteal Bias.JPG</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -1577,7 +1596,7 @@
         <v>36</v>
       </c>
       <c r="U19" s="3" t="str">
-        <f>"Section C/"&amp;O19&amp;".JPG"</f>
+        <f t="shared" si="1"/>
         <v>Section C/Bridge with pelvic tilt.JPG</v>
       </c>
       <c r="V19" s="4" t="s">
@@ -1595,7 +1614,7 @@
         <v>40</v>
       </c>
       <c r="AB19" s="4" t="str">
-        <f>"Section D/"&amp;V19&amp;".JPG"</f>
+        <f t="shared" si="2"/>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
     </row>
@@ -1624,7 +1643,7 @@
         <v>33</v>
       </c>
       <c r="N20" s="4" t="str">
-        <f>"Section B/"&amp;H20&amp;".JPG"</f>
+        <f t="shared" si="0"/>
         <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -1644,7 +1663,7 @@
         <v>37</v>
       </c>
       <c r="U20" s="3" t="str">
-        <f>"Section C/"&amp;O20&amp;".JPG"</f>
+        <f t="shared" si="1"/>
         <v>Section C/Split Squat.JPG</v>
       </c>
       <c r="V20" s="4"/>
@@ -1678,7 +1697,7 @@
         <v>34</v>
       </c>
       <c r="N21" s="4" t="str">
-        <f>"Section B/"&amp;H21&amp;".JPG"</f>
+        <f t="shared" si="0"/>
         <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O21" s="3"/>

--- a/exercise plan.xlsx
+++ b/exercise plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nucifora family\Desktop\a\exercise_image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEE6781-79D9-4C41-A980-DDADCBAA0AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFB9FE6-52F5-459C-8CA5-840B2650BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC76F838-8DF5-4C2B-B52F-3E64228B6566}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="46">
   <si>
     <t>SECTION A</t>
   </si>
@@ -172,10 +172,10 @@
     <t>Dumbbell lateral raise</t>
   </si>
   <si>
-    <t>Quadricepts foam roll (L)</t>
-  </si>
-  <si>
-    <t>Quadricepts foam roll (R)</t>
+    <t>Left leg</t>
+  </si>
+  <si>
+    <t>Right leg</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
   <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.140625" customWidth="1"/>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="13" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1132,13 +1132,15 @@
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="3" t="str">
         <f>"Section A/"&amp;A13&amp;".JPG"</f>
-        <v>Section A/Quadricepts foam roll (L).JPG</v>
+        <v>Section A/Quadricepts foam roll.JPG</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
@@ -1203,7 +1205,7 @@
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1214,13 +1216,15 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="3" t="str">
         <f>"Section A/"&amp;A14&amp;".JPG"</f>
-        <v>Section A/Quadricepts foam roll (R).JPG</v>
+        <v>Section A/Quadricepts foam roll.JPG</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>15</v>

--- a/exercise plan.xlsx
+++ b/exercise plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nucifora family\Desktop\a\exercise_image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFB9FE6-52F5-459C-8CA5-840B2650BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE85124D-1770-4CCE-BC8A-9A88043F208D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC76F838-8DF5-4C2B-B52F-3E64228B6566}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="49">
   <si>
     <t>SECTION A</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>Right leg</t>
+  </si>
+  <si>
+    <t>1st set. On foam roller</t>
+  </si>
+  <si>
+    <t>2nd set. On foam roller</t>
+  </si>
+  <si>
+    <t>3rd set. On foam roller</t>
   </si>
 </sst>
 </file>
@@ -619,7 +628,7 @@
   <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,47 +1236,45 @@
         <v>Section A/Quadricepts foam roll.JPG</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
       </c>
       <c r="J14" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Section B/Alternate Single Leg Flexion.JPG</v>
+        <f>"Section B/"&amp;H14&amp;".JPG"</f>
+        <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P14" s="3">
         <v>1</v>
       </c>
       <c r="Q14" s="3">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Section C/Split Squat.JPG</v>
+        <f>"Section C/"&amp;O14&amp;".JPG"</f>
+        <v>Section C/Bridge with pelvic tilt.JPG</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="W14" s="4">
         <v>1</v>
@@ -1276,13 +1283,15 @@
         <v>12</v>
       </c>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="Z14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="AA14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Section D/Press up - kneeling.JPG</v>
+        <f>"Section D/"&amp;V14&amp;".JPG"</f>
+        <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1294,45 +1303,47 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Section B/Resisted Low Rows.JPG</v>
+        <f>"Section B/"&amp;H15&amp;".JPG"</f>
+        <v>Section B/Wall Squat Gluteal Bias.JPG</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P15" s="3">
         <v>1</v>
       </c>
       <c r="Q15" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Section C/Cat and Camel Pose.JPG</v>
+        <f>"Section C/"&amp;O15&amp;".JPG"</f>
+        <v>Section C/Bridge with pelvic tilt.JPG</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="W15" s="4">
         <v>1</v>
@@ -1345,11 +1356,11 @@
         <v>22</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Section D/Triceps Extensions.JPG</v>
+        <f>"Section D/"&amp;V15&amp;".JPG"</f>
+        <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1361,47 +1372,45 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Section B/Wall Squat Gluteal Bias.JPG</v>
+        <f>"Section B/"&amp;H16&amp;".JPG"</f>
+        <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P16" s="3">
         <v>1</v>
       </c>
       <c r="Q16" s="3">
-        <v>12</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="T16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Section C/Bridge with pelvic tilt.JPG</v>
+        <f>"Section C/"&amp;O16&amp;".JPG"</f>
+        <v>Section C/Split Squat.JPG</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="W16" s="4">
         <v>1</v>
@@ -1414,11 +1423,11 @@
         <v>22</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Section D/Dumbbell lateral raise.JPG</v>
+        <f>"Section D/"&amp;V16&amp;".JPG"</f>
+        <v>Section D/Triceps Extensions.JPG</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1430,24 +1439,24 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>6</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Section B/Alternate Single Leg Flexion.JPG</v>
+        <f>"Section B/"&amp;H17&amp;".JPG"</f>
+        <v>Section B/Wall Squat Gluteal Bias.JPG</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>20</v>
@@ -1466,7 +1475,7 @@
         <v>37</v>
       </c>
       <c r="U17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>"Section C/"&amp;O17&amp;".JPG"</f>
         <v>Section C/Split Squat.JPG</v>
       </c>
       <c r="V17" s="4" t="s">
@@ -1484,7 +1493,7 @@
         <v>40</v>
       </c>
       <c r="AB17" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>"Section D/"&amp;V17&amp;".JPG"</f>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
     </row>
@@ -1511,11 +1520,11 @@
         <v>34</v>
       </c>
       <c r="N18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"Section B/"&amp;H18&amp;".JPG"</f>
         <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P18" s="3">
         <v>1</v>
@@ -1523,19 +1532,19 @@
       <c r="Q18" s="3">
         <v>10</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="T18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Section C/Cat and Camel Pose.JPG</v>
+        <f>"Section C/"&amp;O18&amp;".JPG"</f>
+        <v>Section C/Split Squat.JPG</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="W18" s="4">
         <v>1</v>
@@ -1544,15 +1553,13 @@
         <v>12</v>
       </c>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Section D/Dumbbell lateral raise.JPG</v>
+        <f>"Section D/"&amp;V18&amp;".JPG"</f>
+        <v>Section D/Press up - kneeling.JPG</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1564,44 +1571,44 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="M19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Section B/Wall Squat Gluteal Bias.JPG</v>
+        <f>"Section B/"&amp;H19&amp;".JPG"</f>
+        <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P19" s="3">
         <v>1</v>
       </c>
       <c r="Q19" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Section C/Bridge with pelvic tilt.JPG</v>
+        <f>"Section C/"&amp;O19&amp;".JPG"</f>
+        <v>Section C/Cat and Camel Pose.JPG</v>
       </c>
       <c r="V19" s="4" t="s">
         <v>23</v>
@@ -1618,7 +1625,7 @@
         <v>40</v>
       </c>
       <c r="AB19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>"Section D/"&amp;V19&amp;".JPG"</f>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
     </row>
@@ -1641,17 +1648,17 @@
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="N20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"Section B/"&amp;H20&amp;".JPG"</f>
         <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P20" s="3">
         <v>1</v>
@@ -1659,16 +1666,16 @@
       <c r="Q20" s="3">
         <v>10</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="R20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Section C/Split Squat.JPG</v>
+        <f>"Section C/"&amp;O20&amp;".JPG"</f>
+        <v>Section C/Cat and Camel Pose.JPG</v>
       </c>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
@@ -1687,22 +1694,24 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
       <c r="J21" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="M21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Section B/Resisted Low Rows.JPG</v>
+        <f>"Section B/"&amp;H21&amp;".JPG"</f>
+        <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1993,5 +2002,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exercise plan.xlsx
+++ b/exercise plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nucifora family\Desktop\a\exercise_image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE85124D-1770-4CCE-BC8A-9A88043F208D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76F2883-C467-4CE1-92EB-DA713E7985BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC76F838-8DF5-4C2B-B52F-3E64228B6566}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="55">
   <si>
     <t>SECTION A</t>
   </si>
@@ -185,6 +185,24 @@
   </si>
   <si>
     <t>3rd set. On foam roller</t>
+  </si>
+  <si>
+    <t>1st set</t>
+  </si>
+  <si>
+    <t>2nd set</t>
+  </si>
+  <si>
+    <t>3rd set</t>
+  </si>
+  <si>
+    <t>1st set. 2 kg dumbbells, can increase</t>
+  </si>
+  <si>
+    <t>2nd set. 2 kg dumbbells, can increase</t>
+  </si>
+  <si>
+    <t>3rd set. 2 kg dumbbells, can increase</t>
   </si>
 </sst>
 </file>
@@ -628,7 +646,7 @@
   <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1186,7 @@
         <v>32</v>
       </c>
       <c r="N13" s="4" t="str">
-        <f t="shared" ref="N13:N21" si="0">"Section B/"&amp;H13&amp;".JPG"</f>
+        <f t="shared" ref="N13" si="0">"Section B/"&amp;H13&amp;".JPG"</f>
         <v>Section B/Wall Squat Gluteal Bias.JPG</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -1183,12 +1201,14 @@
       <c r="R13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="T13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="U13" s="3" t="str">
-        <f t="shared" ref="U13:U20" si="1">"Section C/"&amp;O13&amp;".JPG"</f>
+        <f t="shared" ref="U13" si="1">"Section C/"&amp;O13&amp;".JPG"</f>
         <v>Section C/Bridge with pelvic tilt.JPG</v>
       </c>
       <c r="V13" s="4" t="s">
@@ -1202,13 +1222,13 @@
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB13" s="4" t="str">
-        <f t="shared" ref="AB13:AB19" si="2">"Section D/"&amp;V13&amp;".JPG"</f>
+        <f t="shared" ref="AB13" si="2">"Section D/"&amp;V13&amp;".JPG"</f>
         <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
     </row>
@@ -1250,7 +1270,7 @@
         <v>34</v>
       </c>
       <c r="N14" s="4" t="str">
-        <f>"Section B/"&amp;H14&amp;".JPG"</f>
+        <f t="shared" ref="N14:N21" si="3">"Section B/"&amp;H14&amp;".JPG"</f>
         <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -1265,12 +1285,14 @@
       <c r="R14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="T14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="U14" s="3" t="str">
-        <f>"Section C/"&amp;O14&amp;".JPG"</f>
+        <f t="shared" ref="U14:U20" si="4">"Section C/"&amp;O14&amp;".JPG"</f>
         <v>Section C/Bridge with pelvic tilt.JPG</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -1284,13 +1306,13 @@
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB14" s="4" t="str">
-        <f>"Section D/"&amp;V14&amp;".JPG"</f>
+        <f t="shared" ref="AB14:AB19" si="5">"Section D/"&amp;V14&amp;".JPG"</f>
         <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
     </row>
@@ -1319,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="N15" s="4" t="str">
-        <f>"Section B/"&amp;H15&amp;".JPG"</f>
+        <f t="shared" si="3"/>
         <v>Section B/Wall Squat Gluteal Bias.JPG</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -1334,12 +1356,14 @@
       <c r="R15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="T15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="U15" s="3" t="str">
-        <f>"Section C/"&amp;O15&amp;".JPG"</f>
+        <f t="shared" si="4"/>
         <v>Section C/Bridge with pelvic tilt.JPG</v>
       </c>
       <c r="V15" s="4" t="s">
@@ -1353,13 +1377,13 @@
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB15" s="4" t="str">
-        <f>"Section D/"&amp;V15&amp;".JPG"</f>
+        <f t="shared" si="5"/>
         <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
     </row>
@@ -1386,7 +1410,7 @@
         <v>34</v>
       </c>
       <c r="N16" s="4" t="str">
-        <f>"Section B/"&amp;H16&amp;".JPG"</f>
+        <f t="shared" si="3"/>
         <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -1400,13 +1424,13 @@
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U16" s="3" t="str">
-        <f>"Section C/"&amp;O16&amp;".JPG"</f>
+        <f t="shared" si="4"/>
         <v>Section C/Split Squat.JPG</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -1426,7 +1450,7 @@
         <v>39</v>
       </c>
       <c r="AB16" s="4" t="str">
-        <f>"Section D/"&amp;V16&amp;".JPG"</f>
+        <f t="shared" si="5"/>
         <v>Section D/Triceps Extensions.JPG</v>
       </c>
     </row>
@@ -1455,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="N17" s="4" t="str">
-        <f>"Section B/"&amp;H17&amp;".JPG"</f>
+        <f t="shared" si="3"/>
         <v>Section B/Wall Squat Gluteal Bias.JPG</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -1469,13 +1493,13 @@
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U17" s="3" t="str">
-        <f>"Section C/"&amp;O17&amp;".JPG"</f>
+        <f t="shared" si="4"/>
         <v>Section C/Split Squat.JPG</v>
       </c>
       <c r="V17" s="4" t="s">
@@ -1488,12 +1512,14 @@
         <v>12</v>
       </c>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="Z17" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="AA17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AB17" s="4" t="str">
-        <f>"Section D/"&amp;V17&amp;".JPG"</f>
+        <f t="shared" si="5"/>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
     </row>
@@ -1520,7 +1546,7 @@
         <v>34</v>
       </c>
       <c r="N18" s="4" t="str">
-        <f>"Section B/"&amp;H18&amp;".JPG"</f>
+        <f t="shared" si="3"/>
         <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -1534,13 +1560,13 @@
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="U18" s="3" t="str">
-        <f>"Section C/"&amp;O18&amp;".JPG"</f>
+        <f t="shared" si="4"/>
         <v>Section C/Split Squat.JPG</v>
       </c>
       <c r="V18" s="4" t="s">
@@ -1553,12 +1579,14 @@
         <v>12</v>
       </c>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
+      <c r="Z18" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="AA18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AB18" s="4" t="str">
-        <f>"Section D/"&amp;V18&amp;".JPG"</f>
+        <f t="shared" si="5"/>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
     </row>
@@ -1587,7 +1615,7 @@
         <v>33</v>
       </c>
       <c r="N19" s="4" t="str">
-        <f>"Section B/"&amp;H19&amp;".JPG"</f>
+        <f t="shared" si="3"/>
         <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -1602,12 +1630,14 @@
       <c r="R19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="T19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="U19" s="3" t="str">
-        <f>"Section C/"&amp;O19&amp;".JPG"</f>
+        <f t="shared" si="4"/>
         <v>Section C/Cat and Camel Pose.JPG</v>
       </c>
       <c r="V19" s="4" t="s">
@@ -1620,12 +1650,14 @@
         <v>12</v>
       </c>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
+      <c r="Z19" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="AA19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AB19" s="4" t="str">
-        <f>"Section D/"&amp;V19&amp;".JPG"</f>
+        <f t="shared" si="5"/>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
     </row>
@@ -1654,7 +1686,7 @@
         <v>33</v>
       </c>
       <c r="N20" s="4" t="str">
-        <f>"Section B/"&amp;H20&amp;".JPG"</f>
+        <f t="shared" si="3"/>
         <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -1669,12 +1701,14 @@
       <c r="R20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="T20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="U20" s="3" t="str">
-        <f>"Section C/"&amp;O20&amp;".JPG"</f>
+        <f t="shared" si="4"/>
         <v>Section C/Cat and Camel Pose.JPG</v>
       </c>
       <c r="V20" s="4"/>
@@ -1710,7 +1744,7 @@
         <v>33</v>
       </c>
       <c r="N21" s="4" t="str">
-        <f>"Section B/"&amp;H21&amp;".JPG"</f>
+        <f t="shared" si="3"/>
         <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O21" s="3"/>

--- a/exercise plan.xlsx
+++ b/exercise plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nucifora family\Desktop\a\exercise_image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nebula PC\OneDrive\Desktop\a\exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76F2883-C467-4CE1-92EB-DA713E7985BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EA7652-86C5-4572-9179-5D0B7D4C445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FC76F838-8DF5-4C2B-B52F-3E64228B6566}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FC76F838-8DF5-4C2B-B52F-3E64228B6566}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="71">
   <si>
     <t>SECTION A</t>
   </si>
@@ -203,13 +203,61 @@
   </si>
   <si>
     <t>3rd set. 2 kg dumbbells, can increase</t>
+  </si>
+  <si>
+    <t>I removed these UNTIL I can walk properly haha</t>
+  </si>
+  <si>
+    <t>SECTION E</t>
+  </si>
+  <si>
+    <t>Hip Flexor Heel Lifts</t>
+  </si>
+  <si>
+    <t>1. Lie on Back 2. Feet on Ground (not too far) 3. Hand inside to hip bone 4. Other hand below hip bone 5. Gently suck Leg bone back into socket 6. Gently lift heel off bottom</t>
+  </si>
+  <si>
+    <t>5s hold</t>
+  </si>
+  <si>
+    <t>Big Toe movement</t>
+  </si>
+  <si>
+    <t>Sit up right on a chair, knees bent 90 degrees, hip width apart. Feet flat on floor. Relax the calf muscles. Slide the big toe towards each other, allowing the arch to contract gently, without movign the rest of the toes, do not roll the knees at all.</t>
+  </si>
+  <si>
+    <t>Balanced Sitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sittting on a chair with feet fully supported. Have a towel behind you so low/mid back is supported while sitting upright. Place a small weight on your head. Release the position and repeat. Ensure jaw, front of neck and  shoulder muscles are relaxed. </t>
+  </si>
+  <si>
+    <t>Prancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pivot both leg to create an arche (using butt muscle, not thigh) lean to one side while using the same muscle. </t>
+  </si>
+  <si>
+    <t>Metatarasal Doming</t>
+  </si>
+  <si>
+    <t>10s hold</t>
+  </si>
+  <si>
+    <t>Raise arch of foot without raising moving the toes. Do this sitting, if easy do this on 1 foot with desk assistance, and then do it on 1 foot without desk assistance</t>
+  </si>
+  <si>
+    <t>4th set</t>
+  </si>
+  <si>
+    <t>5th set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +296,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +325,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,12 +375,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -643,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40BDE72-54C5-4A13-BB04-84493FBD5F81}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,9 +749,11 @@
     <col min="24" max="24" width="5.28515625" customWidth="1"/>
     <col min="27" max="27" width="13.5703125" customWidth="1"/>
     <col min="28" max="28" width="41.28515625" customWidth="1"/>
+    <col min="29" max="29" width="39.140625" customWidth="1"/>
+    <col min="34" max="34" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -680,7 +761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -688,8 +769,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -726,8 +807,17 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+    </row>
+    <row r="5" spans="1:35" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,8 +902,29 @@
       <c r="AB5" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -833,25 +944,13 @@
       <c r="G6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="3" t="s">
         <v>17</v>
       </c>
@@ -890,8 +989,19 @@
       <c r="AB6" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -956,8 +1066,19 @@
       <c r="AB7" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -980,23 +1101,23 @@
         <v>34</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="P8" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="8">
         <v>10</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3" t="s">
+      <c r="R8" s="8"/>
+      <c r="S8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="3"/>
+      <c r="U8" s="8"/>
       <c r="V8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1012,17 +1133,41 @@
         <v>40</v>
       </c>
       <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:28" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="9"/>
+    </row>
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+    </row>
+    <row r="10" spans="1:35" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+    </row>
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1059,8 +1204,17 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+    </row>
+    <row r="12" spans="1:35" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1299,29 @@
       <c r="AB12" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1170,24 +1345,22 @@
         <v>Section A/Quadricepts foam roll.JPG</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N13" s="4" t="str">
-        <f t="shared" ref="N13" si="0">"Section B/"&amp;H13&amp;".JPG"</f>
-        <v>Section B/Wall Squat Gluteal Bias.JPG</v>
+        <f t="shared" ref="N13:N18" si="0">"Section B/"&amp;H13&amp;".JPG"</f>
+        <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>19</v>
@@ -1231,8 +1404,30 @@
         <f t="shared" ref="AB13" si="2">"Section D/"&amp;V13&amp;".JPG"</f>
         <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI13" s="9" t="str">
+        <f t="shared" ref="AI13:AI19" si="3">"Section E/"&amp;AC13&amp;".JPG"</f>
+        <v>Section E/Hip Flexor Heel Lifts.JPG</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1465,7 @@
         <v>34</v>
       </c>
       <c r="N14" s="4" t="str">
-        <f t="shared" ref="N14:N21" si="3">"Section B/"&amp;H14&amp;".JPG"</f>
+        <f t="shared" si="0"/>
         <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -1292,7 +1487,7 @@
         <v>36</v>
       </c>
       <c r="U14" s="3" t="str">
-        <f t="shared" ref="U14:U20" si="4">"Section C/"&amp;O14&amp;".JPG"</f>
+        <f t="shared" ref="U14:U15" si="4">"Section C/"&amp;O14&amp;".JPG"</f>
         <v>Section C/Bridge with pelvic tilt.JPG</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -1315,8 +1510,30 @@
         <f t="shared" ref="AB14:AB19" si="5">"Section D/"&amp;V14&amp;".JPG"</f>
         <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Section E/Hip Flexor Heel Lifts.JPG</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1325,24 +1542,22 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N15" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Section B/Wall Squat Gluteal Bias.JPG</v>
+        <f t="shared" si="0"/>
+        <v>Section B/Resisted Low Rows.JPG</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>19</v>
@@ -1386,8 +1601,30 @@
         <f t="shared" si="5"/>
         <v>Section D/Dumbbell lateral raise.JPG</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Section E/Big Toe movement.JPG</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1396,25 +1633,27 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="M16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N16" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Section B/Resisted Low Rows.JPG</v>
+        <f t="shared" si="0"/>
+        <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P16" s="3">
         <v>1</v>
@@ -1422,16 +1661,18 @@
       <c r="Q16" s="3">
         <v>10</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="S16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U16" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Section C/Split Squat.JPG</v>
+        <f>"Section C/"&amp;O16&amp;".JPG"</f>
+        <v>Section C/Cat and Camel Pose.JPG</v>
       </c>
       <c r="V16" s="4" t="s">
         <v>21</v>
@@ -1453,8 +1694,30 @@
         <f t="shared" si="5"/>
         <v>Section D/Triceps Extensions.JPG</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Section E/Big Toe movement.JPG</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1463,27 +1726,27 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="M17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Section B/Wall Squat Gluteal Bias.JPG</v>
+        <f t="shared" si="0"/>
+        <v>Section B/Alternate Single Leg Flexion.JPG</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P17" s="3">
         <v>1</v>
@@ -1491,16 +1754,18 @@
       <c r="Q17" s="3">
         <v>10</v>
       </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="S17" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U17" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Section C/Split Squat.JPG</v>
+        <f>"Section C/"&amp;O17&amp;".JPG"</f>
+        <v>Section C/Cat and Camel Pose.JPG</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>23</v>
@@ -1522,8 +1787,28 @@
         <f t="shared" si="5"/>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Section E/Balanced Sitting.JPG</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1532,43 +1817,32 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="M18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Section B/Resisted Low Rows.JPG</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>10</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>Section B/Alternate Single Leg Flexion.JPG</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Section C/Split Squat.JPG</v>
-      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
       <c r="V18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1589,8 +1863,28 @@
         <f t="shared" si="5"/>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Section E/Balanced Sitting.JPG</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1598,48 +1892,20 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>6</v>
-      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Section B/Alternate Single Leg Flexion.JPG</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>10</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U19" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Section C/Cat and Camel Pose.JPG</v>
-      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
       <c r="V19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1660,8 +1926,30 @@
         <f t="shared" si="5"/>
         <v>Section D/Press up - kneeling.JPG</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Section E/Prancing.JPG</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1669,48 +1957,20 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4">
-        <v>6</v>
-      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Section B/Alternate Single Leg Flexion.JPG</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>10</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Section C/Cat and Camel Pose.JPG</v>
-      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
@@ -1718,8 +1978,30 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
-    </row>
-    <row r="21" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI20" s="9" t="str">
+        <f t="shared" ref="AI20:AI21" si="6">"Section E/"&amp;AC20&amp;".JPG"</f>
+        <v>Section E/Prancing.JPG</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1727,26 +2009,13 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1</v>
-      </c>
-      <c r="J21" s="4">
-        <v>6</v>
-      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Section B/Alternate Single Leg Flexion.JPG</v>
-      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -1761,8 +2030,30 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
-    </row>
-    <row r="22" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI21" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Section E/Metatarasal Doming.JPG</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1791,8 +2082,27 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-    </row>
-    <row r="23" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI22" s="9"/>
+    </row>
+    <row r="23" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1821,8 +2131,27 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
-    </row>
-    <row r="24" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI23" s="9"/>
+    </row>
+    <row r="24" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1851,8 +2180,27 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-    </row>
-    <row r="25" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI24" s="9"/>
+    </row>
+    <row r="25" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1881,8 +2229,27 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
-    </row>
-    <row r="26" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI25" s="9"/>
+    </row>
+    <row r="26" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1911,8 +2278,15 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
-    </row>
-    <row r="27" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+    </row>
+    <row r="27" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1941,8 +2315,15 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
-    </row>
-    <row r="28" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+    </row>
+    <row r="28" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1971,8 +2352,15 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
-    </row>
-    <row r="29" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+    </row>
+    <row r="29" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2001,8 +2389,15 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
-    </row>
-    <row r="30" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+    </row>
+    <row r="30" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2031,8 +2426,59 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+    </row>
+    <row r="31" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="8">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exercise plan.xlsx
+++ b/exercise plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nebula PC\OneDrive\Desktop\a\exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EA7652-86C5-4572-9179-5D0B7D4C445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57083D6F-C5C8-4E27-863C-ED33D9AD3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FC76F838-8DF5-4C2B-B52F-3E64228B6566}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG28" sqref="AG28"/>
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +1997,7 @@
         <v>65</v>
       </c>
       <c r="AI20" s="9" t="str">
-        <f t="shared" ref="AI20:AI21" si="6">"Section E/"&amp;AC20&amp;".JPG"</f>
+        <f t="shared" ref="AI20:AI25" si="6">"Section E/"&amp;AC20&amp;".JPG"</f>
         <v>Section E/Prancing.JPG</v>
       </c>
     </row>
@@ -2100,7 +2100,10 @@
       <c r="AH22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AI22" s="9"/>
+      <c r="AI22" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Section E/Metatarasal Doming.JPG</v>
+      </c>
     </row>
     <row r="23" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -2149,7 +2152,10 @@
       <c r="AH23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AI23" s="9"/>
+      <c r="AI23" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Section E/Metatarasal Doming.JPG</v>
+      </c>
     </row>
     <row r="24" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -2198,7 +2204,10 @@
       <c r="AH24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AI24" s="9"/>
+      <c r="AI24" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Section E/Metatarasal Doming.JPG</v>
+      </c>
     </row>
     <row r="25" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
@@ -2247,7 +2256,10 @@
       <c r="AH25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AI25" s="9"/>
+      <c r="AI25" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Section E/Metatarasal Doming.JPG</v>
+      </c>
     </row>
     <row r="26" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
